--- a/input/industry/Propylene_Production.xlsx
+++ b/input/industry/Propylene_Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC85B7F-535E-4A9F-A322-907D5C4CF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340D18B-8C05-4C69-9340-92BD73AB81ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1665" windowWidth="24900" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="1500" windowWidth="18750" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_const" sheetId="3" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Info" sheetId="1" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId2"/>
+    <sheet name="Data_orig" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>France</t>
   </si>
@@ -160,66 +160,21 @@
     <t>12.04.2021  104306</t>
   </si>
   <si>
-    <t>Quelle der Daten</t>
-  </si>
-  <si>
     <t>Eurostat</t>
   </si>
   <si>
-    <t>PRCCODE</t>
-  </si>
-  <si>
-    <t>20141140 - Propene (propylene)</t>
-  </si>
-  <si>
-    <t>INDICATORS</t>
-  </si>
-  <si>
-    <t>PRODQNT</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>koef</t>
-  </si>
-  <si>
-    <t>Serbien</t>
-  </si>
-  <si>
-    <t>capacity-&gt;production</t>
-  </si>
-  <si>
     <t>https://www.hip-petrohemija.com/tehnologija/proizvodna-linija/etilen.22.html</t>
   </si>
   <si>
-    <t>description of koef</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>other lands without info</t>
-  </si>
-  <si>
     <t>JRC LVOC</t>
   </si>
   <si>
-    <t>equal share propylene/ethylene</t>
-  </si>
-  <si>
-    <t>unit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tausend tonnes</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Further Sources</t>
-  </si>
-  <si>
     <t>https://s3-us-west-2.amazonaws.com/okchem-o/image/201810/af95dc78-926f-43f5-a1ef-e5b3cb058c9b.pdf</t>
   </si>
   <si>
@@ -230,17 +185,135 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Units:</t>
+  </si>
+  <si>
+    <t>Tausend tonns</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Last available year</t>
+  </si>
+  <si>
+    <t>http://www.shts.org.rs/srpska/organic.html</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>IndexBox Platform</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>PRCCODE: 20141140 - Propene (propylene)</t>
+  </si>
+  <si>
+    <t>Original unit:</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Production 2004: 95.9 kt</t>
+  </si>
+  <si>
+    <t>2008-2019</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2013-2015</t>
+  </si>
+  <si>
+    <t>Average 2008-2019</t>
+  </si>
+  <si>
+    <t>Period for Data-const</t>
+  </si>
+  <si>
+    <t>2016-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data average is taken. The observed period is dependent on the data availability. </t>
+  </si>
+  <si>
+    <t>Observed period is for each country stated in sheet Data_orig</t>
+  </si>
+  <si>
+    <t>2009-2012</t>
+  </si>
+  <si>
+    <t>2012-2015</t>
+  </si>
+  <si>
+    <t>JRC: Best Available Techniques (BAT) Reference Document for the Production of Large Volume Organic Chemicals</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Share of ethylene and propylene = 50% + 50%</t>
+  </si>
+  <si>
+    <t>for [3]</t>
+  </si>
+  <si>
+    <t>Capacity factor</t>
+  </si>
+  <si>
+    <t>Further Info:</t>
+  </si>
+  <si>
+    <t>https://www.icis.com/explore/resources/news/2021/03/24/10621155/italy-s-petchems-units-face-uncertain-future-as-porto-marghera-set-to-close/</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Finland, Austria, Czechia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +337,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -279,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -302,12 +397,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -318,9 +442,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -603,7 +735,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,13 +747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="15">
         <v>2018</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -637,7 +769,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>2023.047875</v>
+        <f>Data_orig!AA3</f>
+        <v>1980.5271818181818</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -718,7 +851,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>992.40606860000003</v>
+        <f>Data_orig!AA12</f>
+        <v>1193.0465022727271</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -763,8 +897,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <f>420/2*0.8+30</f>
-        <v>198</v>
+        <f>420/2*0.8</f>
+        <v>168</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -919,8 +1053,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <f>85*0.8</f>
-        <v>68</v>
+        <v>95.5</v>
       </c>
       <c r="C34" s="8"/>
     </row>
@@ -934,8 +1067,8 @@
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>60</v>
+      <c r="A36" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B36" s="3">
         <v>457</v>
@@ -943,7 +1076,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3">
         <v>105</v>
@@ -951,7 +1084,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3">
         <v>715</v>
@@ -959,7 +1092,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
         <v>425</v>
@@ -973,26 +1106,321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" display="https://app.indexbox.io/" xr:uid="{37DC0FB4-24AA-4DDE-BA22-9C60871F44E3}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{C8686642-B8A8-4E99-BAF6-FB793E154C4B}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{72655CD2-BFF2-49DC-A84F-46DEDCD19830}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="AA39" sqref="AA39:AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="10.28515625" style="3"/>
+    <col min="1" max="6" width="10.28515625" style="3"/>
+    <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" style="3"/>
     <col min="10" max="13" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.28515625" style="3"/>
+    <col min="14" max="26" width="10.28515625" style="3"/>
+    <col min="27" max="27" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2">
         <v>1995</v>
@@ -1069,8 +1497,14 @@
       <c r="Z1" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1573,15 @@
       <c r="Z2" s="4">
         <v>1934962097</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="13">
+        <f>AVERAGE(O2:Z2)/1000000</f>
+        <v>2176.8173598333333</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1193,8 +1634,15 @@
       <c r="Z3" s="4">
         <v>1762777000</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="13">
+        <f t="shared" ref="AA3:AA38" si="0">AVERAGE(O3:Z3)/1000000</f>
+        <v>1980.5271818181818</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1263,8 +1711,15 @@
       <c r="Z4" s="4">
         <v>3438966000</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="13">
+        <f t="shared" si="0"/>
+        <v>3838.2545</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1748,9 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1801,12 @@
       <c r="Z6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1415,8 +1875,12 @@
       <c r="Z7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1485,8 +1949,12 @@
       <c r="Z8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1555,8 +2023,12 @@
       <c r="Z9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1615,8 +2087,15 @@
       <c r="Z10" s="4">
         <v>163098750</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="13">
+        <f t="shared" si="0"/>
+        <v>142.48790049999999</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1659,8 +2138,15 @@
       <c r="Z11" s="4">
         <v>1193870000</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="13">
+        <f t="shared" si="0"/>
+        <v>1155.3341666666668</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1711,8 +2197,15 @@
       <c r="Z12" s="4">
         <v>1073855887</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="13">
+        <f t="shared" si="0"/>
+        <v>1193.0465022727271</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1781,8 +2274,12 @@
       <c r="Z13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1847,8 +2344,12 @@
       <c r="Z14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1889,8 +2390,15 @@
       <c r="Z15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="13">
+        <f t="shared" si="0"/>
+        <v>115.10333333333332</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1929,8 +2437,15 @@
         <v>267882100</v>
       </c>
       <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="13">
+        <f t="shared" si="0"/>
+        <v>267.88209999999998</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1963,8 +2478,9 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2001,8 +2517,9 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2055,8 +2572,12 @@
       <c r="Z19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2087,8 +2608,9 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="13"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2147,8 +2669,15 @@
       <c r="Z21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="13">
+        <f t="shared" si="0"/>
+        <v>4.9077250000000003E-2</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2205,8 +2734,12 @@
       <c r="Z22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,8 +2798,15 @@
       <c r="Z23" s="4">
         <v>49660763</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1383969166666663</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2307,8 +2847,15 @@
       <c r="Z24" s="4">
         <v>441849000</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="13">
+        <f t="shared" si="0"/>
+        <v>354.16783333333331</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2337,8 +2884,9 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="13"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2379,8 +2927,15 @@
       <c r="Z26" s="4">
         <v>124360609</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="13">
+        <f t="shared" si="0"/>
+        <v>27.050013800000002</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2419,8 +2974,15 @@
       <c r="Z27" s="4">
         <v>334999000</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="13">
+        <f t="shared" si="0"/>
+        <v>360.03100000000001</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2471,8 +3033,15 @@
       <c r="Z28" s="4">
         <v>282699721</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="13">
+        <f t="shared" si="0"/>
+        <v>240.64950899999999</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2501,8 +3070,9 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2559,8 +3129,12 @@
       <c r="Z30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2613,8 +3187,12 @@
       <c r="Z31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2659,8 +3237,12 @@
       <c r="Z32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2707,8 +3289,12 @@
       <c r="Z33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2755,8 +3341,12 @@
       <c r="Z34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2787,8 +3377,9 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="13"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2841,8 +3432,12 @@
       <c r="Z36" s="4">
         <v>12573272625</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="13">
+        <f t="shared" si="0"/>
+        <v>13035.327781333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2895,8 +3490,12 @@
       <c r="Z37" s="4">
         <v>12573272625</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="13">
+        <f t="shared" si="0"/>
+        <v>13118.662531333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2949,10 +3548,14 @@
       <c r="Z38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="P39" s="9">
         <v>489.92500000000001</v>
@@ -2966,10 +3569,14 @@
       <c r="S39" s="3">
         <v>380.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N40" s="3">
         <f>323.6*(100-22.7)/100</f>
@@ -2995,10 +3602,14 @@
         <f>525.9*(100-90.8)/100</f>
         <v>48.382800000000017</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B41" s="6"/>
       <c r="T41" s="3">
@@ -3013,10 +3624,14 @@
         <f>829.7*(100-15)/100</f>
         <v>705.245</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="S42" s="3">
         <f>972.1*(100-65)/100</f>
@@ -3033,6 +3648,10 @@
       <c r="V42" s="3">
         <f>1109.9*(100-69)/100</f>
         <v>344.06900000000002</v>
+      </c>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3040,131 +3659,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>0.9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/industry/Propylene_Production.xlsx
+++ b/input/industry/Propylene_Production.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340D18B-8C05-4C69-9340-92BD73AB81ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59E6C0-BEC4-4991-A9AF-7D4F04D9EB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="1500" windowWidth="18750" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>France</t>
   </si>
@@ -145,21 +145,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Gesamte Produktion je PRODCOM Liste (NACE Rev. 2) - Jährliche Daten  [DS-066342]</t>
-  </si>
-  <si>
-    <t>Letzte Aktualisierung</t>
-  </si>
-  <si>
-    <t>03.03.2021  130057</t>
-  </si>
-  <si>
-    <t>Exportierte Daten</t>
-  </si>
-  <si>
-    <t>12.04.2021  104306</t>
-  </si>
-  <si>
     <t>Eurostat</t>
   </si>
   <si>
@@ -302,18 +287,41 @@
   </si>
   <si>
     <t>Finland, Austria, Czechia</t>
+  </si>
+  <si>
+    <t>Data extracted on 02/08/2023 13:36:31 from [ESTAT]</t>
+  </si>
+  <si>
+    <t>Total production [DS-056121__custom_7071365]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last updated: </t>
+  </si>
+  <si>
+    <t>24/07/2023 11:00</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/DS-056121__custom_7071365/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>[1], A1</t>
+  </si>
+  <si>
+    <t>[3], A2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +363,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,7 +454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -439,17 +462,23 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -735,7 +764,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,50 +776,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="15">
+      <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="14">
         <v>2018</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>2176.8173598333333</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <f>Data_orig!AA3</f>
-        <v>1980.5271818181818</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7">
+        <f>Data_orig!AD3</f>
+        <v>1967.9647272727273</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3838.2545</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1050</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -799,7 +838,9 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -808,7 +849,9 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -817,7 +860,9 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -826,71 +871,87 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>142.48790049999999</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1219.6805999999999</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
-        <f>Data_orig!AA12</f>
+      <c r="B12" s="7">
+        <f>Data_orig!AD12</f>
         <v>1193.0465022727271</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>175.26033333333334</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>267.88209999999998</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -900,7 +961,9 @@
         <f>420/2*0.8</f>
         <v>168</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -910,7 +973,9 @@
         <f>500/2*0.8</f>
         <v>200</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -919,7 +984,9 @@
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -928,7 +995,9 @@
       <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -937,62 +1006,76 @@
       <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>49.660763000000003</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>357.43624999999997</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>544*0.5*0.8</f>
         <v>217.60000000000002</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>33.812517249999999</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>360.03100000000001</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>240.64950899999999</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1001,7 +1084,9 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1010,7 +1095,9 @@
       <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1019,7 +1106,9 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1028,7 +1117,9 @@
       <c r="B31" s="3">
         <v>0</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1037,7 +1128,9 @@
       <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1046,7 +1139,9 @@
       <c r="B33" s="3">
         <v>0</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1055,7 +1150,9 @@
       <c r="B34" s="3">
         <v>95.5</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -1064,41 +1161,56 @@
       <c r="B35" s="3">
         <v>0</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
         <v>457</v>
       </c>
+      <c r="C36" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3">
         <v>105</v>
       </c>
+      <c r="C37" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3">
         <v>715</v>
       </c>
+      <c r="C38" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3">
         <v>425</v>
       </c>
+      <c r="C39" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -1110,7 +1222,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1235,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1141,31 +1253,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1173,73 +1284,73 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
+      <c r="D5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="12" t="s">
-        <v>87</v>
+      <c r="F8" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="11" t="s">
-        <v>61</v>
+      <c r="F9" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1248,7 +1359,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1260,13 +1371,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1276,7 +1387,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1285,13 +1396,13 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1299,12 +1410,12 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17">
+        <v>80</v>
+      </c>
+      <c r="D15" s="16">
         <v>0.8</v>
       </c>
       <c r="E15" s="1"/>
@@ -1315,13 +1426,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,28 +1440,28 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>44</v>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,7 +1481,7 @@
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1398,13 +1509,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB42"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA39" sqref="AA39:AA42"/>
+      <selection pane="bottomRight" activeCell="P39" sqref="P39:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,14 +1524,17 @@
     <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.28515625" style="3"/>
     <col min="10" max="13" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="26" width="10.28515625" style="3"/>
-    <col min="27" max="27" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.28515625" style="3"/>
+    <col min="14" max="24" width="10.28515625" style="3"/>
+    <col min="25" max="25" width="13" style="3" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="3" customWidth="1"/>
+    <col min="27" max="29" width="10.28515625" style="3"/>
+    <col min="30" max="30" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2">
         <v>1995</v>
@@ -1497,14 +1611,23 @@
       <c r="Z1" s="2">
         <v>2019</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1573,15 +1696,27 @@
       <c r="Z2" s="4">
         <v>1934962097</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="4">
+        <v>1652905810</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>1748078538</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>1636672955</v>
+      </c>
+      <c r="AD2" s="12">
         <f>AVERAGE(O2:Z2)/1000000</f>
         <v>2176.8173598333333</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>2176.8173598333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1632,17 +1767,29 @@
         <v>1995740000</v>
       </c>
       <c r="Z3" s="4">
-        <v>1762777000</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" ref="AA3:AA38" si="0">AVERAGE(O3:Z3)/1000000</f>
-        <v>1980.5271818181818</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+        <v>1624590000</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1533752000</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>1364741000</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1364859000</v>
+      </c>
+      <c r="AD3" s="12">
+        <f t="shared" ref="AD3:AD38" si="0">AVERAGE(O3:Z3)/1000000</f>
+        <v>1967.9647272727273</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1967.9647272727273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1711,15 +1858,27 @@
       <c r="Z4" s="4">
         <v>3438966000</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="4">
+        <v>3479721000</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>3552875000</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>3061771000</v>
+      </c>
+      <c r="AD4" s="12">
         <f t="shared" si="0"/>
         <v>3838.2545</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>3838.2545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1747,10 +1906,19 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="13"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4">
+        <v>555470000</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>548158000</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>593763000</v>
+      </c>
+      <c r="AD5" s="12"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1801,12 +1969,18 @@
       <c r="Z6" s="4">
         <v>0</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1875,12 +2049,20 @@
       <c r="Z7" s="4">
         <v>0</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1949,12 +2131,20 @@
       <c r="Z8" s="4">
         <v>0</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2023,12 +2213,24 @@
       <c r="Z9" s="4">
         <v>0</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2087,15 +2289,25 @@
       <c r="Z10" s="4">
         <v>163098750</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="4">
+        <v>159750682</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>164733498</v>
+      </c>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="12">
         <f t="shared" si="0"/>
         <v>142.48790049999999</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>142.48790049999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2138,15 +2350,27 @@
       <c r="Z11" s="4">
         <v>1193870000</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="4">
+        <v>1249989000</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1248681000</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>1060466000</v>
+      </c>
+      <c r="AD11" s="12">
         <f t="shared" si="0"/>
         <v>1155.3341666666668</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>1219.6805999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2197,15 +2421,25 @@
       <c r="Z12" s="4">
         <v>1073855887</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4">
+        <v>1180678316</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>1032340676</v>
+      </c>
+      <c r="AD12" s="12">
         <f t="shared" si="0"/>
         <v>1193.0465022727271</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1193.0465022727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2274,12 +2508,24 @@
       <c r="Z13" s="4">
         <v>0</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2344,12 +2590,24 @@
       <c r="Z14" s="4">
         <v>0</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2390,15 +2648,23 @@
       <c r="Z15" s="4">
         <v>0</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="12">
         <f t="shared" si="0"/>
         <v>115.10333333333332</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>175.26033333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2436,16 +2702,26 @@
       <c r="Y16" s="4">
         <v>267882100</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="13">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4">
+        <v>72371000</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>99739000</v>
+      </c>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="12">
         <f t="shared" si="0"/>
         <v>267.88209999999998</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AE16" s="3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3">
+        <v>267.88209999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2477,10 +2753,20 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="13"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4">
+        <v>245367000</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>275840000</v>
+      </c>
+      <c r="AD17" s="12"/>
+      <c r="AF17" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2516,10 +2802,16 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="13"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="12"/>
+      <c r="AF18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2572,12 +2864,24 @@
       <c r="Z19" s="4">
         <v>0</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2607,10 +2911,13 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="13"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2669,15 +2976,18 @@
       <c r="Z21" s="4">
         <v>0</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="12">
         <f t="shared" si="0"/>
         <v>4.9077250000000003E-2</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2734,12 +3044,20 @@
       <c r="Z22" s="4">
         <v>0</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2798,15 +3116,27 @@
       <c r="Z23" s="4">
         <v>49660763</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="4">
+        <v>73376905</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>76231842</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>55452947</v>
+      </c>
+      <c r="AD23" s="12">
         <f t="shared" si="0"/>
         <v>4.1383969166666663</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AE23" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>49.660763000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2847,15 +3177,23 @@
       <c r="Z24" s="4">
         <v>441849000</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="4">
+        <v>427843000</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="12">
         <f t="shared" si="0"/>
         <v>354.16783333333331</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>357.43624999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2883,10 +3221,13 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="13"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2927,15 +3268,27 @@
       <c r="Z26" s="4">
         <v>124360609</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="4">
+        <v>58077227</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>165787706</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>227042439</v>
+      </c>
+      <c r="AD26" s="12">
         <f t="shared" si="0"/>
         <v>27.050013800000002</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>33.812517249999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2974,15 +3327,25 @@
       <c r="Z27" s="4">
         <v>334999000</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="4">
+        <v>356946000</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>387495000</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="12">
         <f t="shared" si="0"/>
         <v>360.03100000000001</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>360.03100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3033,15 +3396,27 @@
       <c r="Z28" s="4">
         <v>282699721</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="4">
+        <v>237837544</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>229784925</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>238015346</v>
+      </c>
+      <c r="AD28" s="12">
         <f t="shared" si="0"/>
         <v>240.64950899999999</v>
       </c>
-      <c r="AB28" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>240.64950899999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3069,10 +3444,13 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="13"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="12"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -3129,12 +3507,24 @@
       <c r="Z30" s="4">
         <v>0</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -3187,12 +3577,24 @@
       <c r="Z31" s="4">
         <v>0</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="4">
+        <v>6337000</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>20230000</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>16109000</v>
+      </c>
+      <c r="AD31" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -3237,12 +3639,20 @@
       <c r="Z32" s="4">
         <v>0</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -3289,12 +3699,22 @@
       <c r="Z33" s="4">
         <v>0</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -3341,12 +3761,19 @@
       <c r="Z34" s="4">
         <v>0</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3376,10 +3803,13 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="13"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="12"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -3430,14 +3860,26 @@
         <v>12756552859</v>
       </c>
       <c r="Z36" s="4">
-        <v>12573272625</v>
-      </c>
-      <c r="AA36" s="13">
+        <v>12435085625</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>11590565350</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>12109003905</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>11168238016</v>
+      </c>
+      <c r="AD36" s="12">
         <f t="shared" si="0"/>
-        <v>13035.327781333333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+        <v>13023.812198</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -3488,14 +3930,20 @@
         <v>12756566859</v>
       </c>
       <c r="Z37" s="4">
-        <v>12573272625</v>
-      </c>
-      <c r="AA37" s="13">
+        <v>12435085625</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="12">
         <f t="shared" si="0"/>
-        <v>13118.662531333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+        <v>13107.146948</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -3548,16 +3996,28 @@
       <c r="Z38" s="4">
         <v>0</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AF38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P39" s="9">
+        <v>41</v>
+      </c>
+      <c r="P39" s="8">
         <v>489.92500000000001</v>
       </c>
       <c r="Q39" s="3">
@@ -3569,14 +4029,17 @@
       <c r="S39" s="3">
         <v>380.4</v>
       </c>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N40" s="3">
         <f>323.6*(100-22.7)/100</f>
@@ -3602,14 +4065,17 @@
         <f>525.9*(100-90.8)/100</f>
         <v>48.382800000000017</v>
       </c>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B41" s="6"/>
       <c r="T41" s="3">
@@ -3624,14 +4090,17 @@
         <f>829.7*(100-15)/100</f>
         <v>705.245</v>
       </c>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S42" s="3">
         <f>972.1*(100-65)/100</f>
@@ -3649,9 +4118,12 @@
         <f>1109.9*(100-69)/100</f>
         <v>344.06900000000002</v>
       </c>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="3" t="s">
-        <v>80</v>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
